--- a/data/trans_orig/P36B15-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>108757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91958</v>
+        <v>91038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129730</v>
+        <v>129922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1870324208530475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.15814320059023</v>
+        <v>0.1565603834429825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2231018105623759</v>
+        <v>0.2234306978149287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -765,19 +765,19 @@
         <v>127330</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106540</v>
+        <v>107869</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150764</v>
+        <v>150953</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1394398336627126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1166724207980563</v>
+        <v>0.118128043503623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1651024175935933</v>
+        <v>0.1653097150025385</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>232</v>
@@ -786,19 +786,19 @@
         <v>236087</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209278</v>
+        <v>209834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>267011</v>
+        <v>268041</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1579555968972476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1400190036325694</v>
+        <v>0.1403907666761063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1786455618425871</v>
+        <v>0.1793348761977085</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>128247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107149</v>
+        <v>109672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149158</v>
+        <v>149448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2205514127592287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1842681780906704</v>
+        <v>0.1886072219050323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2565114843310977</v>
+        <v>0.2570116540523963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -836,19 +836,19 @@
         <v>184934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162528</v>
+        <v>161488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>209294</v>
+        <v>208719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2025226506105774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1779851987316305</v>
+        <v>0.1768463246881558</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2291994632746692</v>
+        <v>0.2285697368011878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -857,19 +857,19 @@
         <v>313182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>286165</v>
+        <v>281988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>347792</v>
+        <v>344620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2095366902134499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1914609365296452</v>
+        <v>0.1886665816466355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.232693054816385</v>
+        <v>0.2305704551078629</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>160094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>140495</v>
+        <v>138404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182061</v>
+        <v>181308</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.275318794130558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2416136921900225</v>
+        <v>0.2380177384223429</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3130970303664195</v>
+        <v>0.311801281372345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>293</v>
@@ -907,19 +907,19 @@
         <v>303966</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>275967</v>
+        <v>275397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>332227</v>
+        <v>334606</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3328745791309269</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3022133941859702</v>
+        <v>0.3015892761866746</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3638235448066494</v>
+        <v>0.3664290650285524</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -928,19 +928,19 @@
         <v>464059</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>427795</v>
+        <v>428306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>499410</v>
+        <v>500041</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3104826615916961</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2862192839564313</v>
+        <v>0.286561316007948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3341339575187149</v>
+        <v>0.334556650539064</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>95925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79973</v>
+        <v>78865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118916</v>
+        <v>115135</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1649651102203601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.137531737416976</v>
+        <v>0.1356260488150332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2045036165042713</v>
+        <v>0.198001052332709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -978,19 +978,19 @@
         <v>159995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138748</v>
+        <v>136145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>184433</v>
+        <v>183477</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1752119182290749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1519432621660152</v>
+        <v>0.1490934172541656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2019733220822984</v>
+        <v>0.2009269103971761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -999,19 +999,19 @@
         <v>255920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230466</v>
+        <v>229885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289659</v>
+        <v>288723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1712254261680249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1541951482886349</v>
+        <v>0.153806093099869</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1937984688552909</v>
+        <v>0.1931726582858579</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>88463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72170</v>
+        <v>72533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108509</v>
+        <v>107184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1521322620368056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1241138124887319</v>
+        <v>0.1247380194940156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1866063160278082</v>
+        <v>0.184327283169291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -1049,19 +1049,19 @@
         <v>136928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117657</v>
+        <v>116028</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>160032</v>
+        <v>159126</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1499510183667082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1288466484176948</v>
+        <v>0.1270627417002004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1752521270671791</v>
+        <v>0.1742593972932106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>215</v>
@@ -1070,19 +1070,19 @@
         <v>225391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>198873</v>
+        <v>199515</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>255849</v>
+        <v>253409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1507996251295814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1330575643671289</v>
+        <v>0.1334870497221301</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.171178116142081</v>
+        <v>0.1695452764866162</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>142708</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121809</v>
+        <v>121984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165535</v>
+        <v>164452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1326203276878848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1131984350651835</v>
+        <v>0.1133612793510417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1538344802827513</v>
+        <v>0.1528273809406634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -1195,19 +1195,19 @@
         <v>158569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137903</v>
+        <v>135738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182176</v>
+        <v>182122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1501503977878309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1305814908330104</v>
+        <v>0.1285316258995644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1725039456104463</v>
+        <v>0.1724528679953073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -1216,19 +1216,19 @@
         <v>301277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>272348</v>
+        <v>271053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>337655</v>
+        <v>334171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1413031800949411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1277352456356164</v>
+        <v>0.1271278104919893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1583650969102058</v>
+        <v>0.1567307542762027</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>213837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188377</v>
+        <v>190113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>239890</v>
+        <v>239516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1987218309218647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1750613929308666</v>
+        <v>0.1766743600653172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2229330049341723</v>
+        <v>0.2225854711787762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -1266,19 +1266,19 @@
         <v>220300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194677</v>
+        <v>191741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246079</v>
+        <v>247381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2086033023992789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1843411339152798</v>
+        <v>0.1815605753614222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.233014061739767</v>
+        <v>0.2342463646644459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>428</v>
@@ -1287,19 +1287,19 @@
         <v>434137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>398573</v>
+        <v>395725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472686</v>
+        <v>467756</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2036162413785113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1869365157368797</v>
+        <v>0.1856006250762444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2216962309164873</v>
+        <v>0.2193840742243303</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>339544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>308389</v>
+        <v>307278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>369729</v>
+        <v>372374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3155433042943065</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2865899517117438</v>
+        <v>0.2855575239361793</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3435942022396623</v>
+        <v>0.3460527625635752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>327</v>
@@ -1337,19 +1337,19 @@
         <v>333863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>306582</v>
+        <v>302170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>364863</v>
+        <v>362344</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3161372449043643</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2903046573683996</v>
+        <v>0.2861269348740798</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3454909721664809</v>
+        <v>0.3431056310906813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>659</v>
@@ -1358,19 +1358,19 @@
         <v>673407</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>631153</v>
+        <v>632897</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>713569</v>
+        <v>716849</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3158374901490285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2960195277102012</v>
+        <v>0.2968376696005828</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3346740749029883</v>
+        <v>0.3362124866197372</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>245439</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218310</v>
+        <v>216482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276106</v>
+        <v>272903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2280896260682649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2028782835365602</v>
+        <v>0.2011801813472157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2565891495486297</v>
+        <v>0.2536130566624236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -1408,19 +1408,19 @@
         <v>212235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>188744</v>
+        <v>187845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237467</v>
+        <v>240935</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2009671106370566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1787228497162471</v>
+        <v>0.1778717375697565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2248593365098407</v>
+        <v>0.2281427743083987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>441</v>
@@ -1429,19 +1429,19 @@
         <v>457674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>420353</v>
+        <v>420296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>499311</v>
+        <v>497429</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2146555212954601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1971512577656947</v>
+        <v>0.1971249133970603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2341839946436704</v>
+        <v>0.2333010587872059</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>134535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112198</v>
+        <v>113620</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158099</v>
+        <v>158945</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1250249110276792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1042668815264632</v>
+        <v>0.1055884635542861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.146923457618734</v>
+        <v>0.1477094455473029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -1479,19 +1479,19 @@
         <v>131103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110340</v>
+        <v>110186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154054</v>
+        <v>154130</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1241419442714694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1044817728600403</v>
+        <v>0.104336066995036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1458743658626155</v>
+        <v>0.1459468014478352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>256</v>
@@ -1500,19 +1500,19 @@
         <v>265637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>236815</v>
+        <v>236008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296214</v>
+        <v>297089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1245875670820591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1110693745947481</v>
+        <v>0.110691286849696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1389286693168125</v>
+        <v>0.1393388881979707</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>164321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141234</v>
+        <v>140674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188213</v>
+        <v>188608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1467486800480449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1261304701817534</v>
+        <v>0.1256301326882945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1680850840247331</v>
+        <v>0.1684382359981306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -1625,19 +1625,19 @@
         <v>102663</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86224</v>
+        <v>84295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122242</v>
+        <v>121758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1039892703952458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08733807842316366</v>
+        <v>0.08538432129288352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1238210165612253</v>
+        <v>0.1233308171037746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>264</v>
@@ -1646,19 +1646,19 @@
         <v>266984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>236711</v>
+        <v>239419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>302403</v>
+        <v>299539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1267134759769128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1123454186078838</v>
+        <v>0.1136309394783351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1435235192243677</v>
+        <v>0.1421641769296297</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>238760</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>213508</v>
+        <v>210698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>269093</v>
+        <v>263975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2132265296910802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1906752352445053</v>
+        <v>0.1881661056943968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2403154709254267</v>
+        <v>0.2357451857894909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -1696,19 +1696,19 @@
         <v>211098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186994</v>
+        <v>187633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>238969</v>
+        <v>238288</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2138257596036156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1894102750493721</v>
+        <v>0.1900575752590108</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2420562286109561</v>
+        <v>0.2413661819382958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>446</v>
@@ -1717,19 +1717,19 @@
         <v>449858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>416600</v>
+        <v>414566</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>491559</v>
+        <v>487741</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2135073028280495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1977226994003914</v>
+        <v>0.1967573970614213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2332991224091455</v>
+        <v>0.2314870807701803</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>328211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>296570</v>
+        <v>297254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>355902</v>
+        <v>359177</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2931113303648678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2648546800706054</v>
+        <v>0.2654652118374279</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3178412653693075</v>
+        <v>0.3207661225581177</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>358</v>
@@ -1767,19 +1767,19 @@
         <v>365173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>337854</v>
+        <v>335069</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>397560</v>
+        <v>396416</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3698905580746307</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3422194469652373</v>
+        <v>0.3393984699829011</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4026966926726104</v>
+        <v>0.4015378542344288</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>672</v>
@@ -1788,19 +1788,19 @@
         <v>693383</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>650055</v>
+        <v>652233</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>733764</v>
+        <v>736704</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3290867450883104</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3085228437784333</v>
+        <v>0.3095565029343278</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3482521445819675</v>
+        <v>0.3496473640273381</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>231180</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205852</v>
+        <v>205640</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257937</v>
+        <v>259729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.206457778800958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1838380814002837</v>
+        <v>0.1836487064910599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2303532576429797</v>
+        <v>0.2319535120440014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>174</v>
@@ -1838,19 +1838,19 @@
         <v>175561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>152547</v>
+        <v>153185</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>200233</v>
+        <v>198125</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1778293883031653</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1545182602847533</v>
+        <v>0.1551636984164684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2028200281682533</v>
+        <v>0.2006842993988247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>403</v>
@@ -1859,19 +1859,19 @@
         <v>406742</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369714</v>
+        <v>373696</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>444917</v>
+        <v>442705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1930437571737022</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1754700765782932</v>
+        <v>0.1773597827159562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2111623896149847</v>
+        <v>0.2101124743368977</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>157275</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134859</v>
+        <v>136387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181392</v>
+        <v>183039</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1404556810950491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1204371161342511</v>
+        <v>0.1218019133142926</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1619933329695994</v>
+        <v>0.1634645281735628</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -1909,19 +1909,19 @@
         <v>132750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112849</v>
+        <v>114508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152884</v>
+        <v>156699</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1344650236233426</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1143072903111961</v>
+        <v>0.1159877227584496</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1548595788811298</v>
+        <v>0.1587231456412312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -1930,19 +1930,19 @@
         <v>290025</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258883</v>
+        <v>258822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>320606</v>
+        <v>322202</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.137648718933025</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1228683588987784</v>
+        <v>0.1228396302239388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1521628239153379</v>
+        <v>0.1529204047391595</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>74787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60969</v>
+        <v>59845</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94431</v>
+        <v>91491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1672341279987175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1363359138777722</v>
+        <v>0.1338214061788118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2111616525133238</v>
+        <v>0.2045860701826782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2055,19 +2055,19 @@
         <v>42931</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31044</v>
+        <v>31519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55476</v>
+        <v>57070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1258378737903194</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09099632754058198</v>
+        <v>0.09238923003530589</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1626095000332614</v>
+        <v>0.1672842334359324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -2076,19 +2076,19 @@
         <v>117718</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99610</v>
+        <v>100022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139599</v>
+        <v>138470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1493200926688362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1263516070265766</v>
+        <v>0.1268738001176686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1770758639392928</v>
+        <v>0.1756432552868995</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>71896</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57300</v>
+        <v>57438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90879</v>
+        <v>89615</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1607691964016467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1281296194885473</v>
+        <v>0.1284387879822894</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2032171834134699</v>
+        <v>0.2003906020387053</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>60</v>
@@ -2126,19 +2126,19 @@
         <v>59888</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46727</v>
+        <v>46047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>74995</v>
+        <v>75629</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1755423026175604</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1369664687453033</v>
+        <v>0.1349733433681334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2198239064536266</v>
+        <v>0.2216846666419121</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -2147,19 +2147,19 @@
         <v>131784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>110965</v>
+        <v>112015</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>155004</v>
+        <v>153270</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1671621889983121</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1407544540090088</v>
+        <v>0.1420865398436469</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1966157050096221</v>
+        <v>0.1944162689755754</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>135622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116720</v>
+        <v>116036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>157471</v>
+        <v>155547</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3032690499816187</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2610025525162532</v>
+        <v>0.2594717026150667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3521268240499953</v>
+        <v>0.3478243994208674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>91</v>
@@ -2197,19 +2197,19 @@
         <v>90059</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>72357</v>
+        <v>73740</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104971</v>
+        <v>105313</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2639805183777407</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2120918434520881</v>
+        <v>0.2161459262189427</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3076914293390595</v>
+        <v>0.3086935128144663</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>225</v>
@@ -2218,19 +2218,19 @@
         <v>225681</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>202082</v>
+        <v>199791</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>252620</v>
+        <v>249132</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.286267121747536</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2563322324246591</v>
+        <v>0.2534268658716051</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.320437703555198</v>
+        <v>0.3160141687002092</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>97603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80610</v>
+        <v>82453</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116095</v>
+        <v>118535</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2182543333997161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1802542625140638</v>
+        <v>0.1843762926608585</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2596046381412896</v>
+        <v>0.2650596722207276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>89</v>
@@ -2268,19 +2268,19 @@
         <v>88661</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72877</v>
+        <v>72060</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105375</v>
+        <v>105058</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2598839023489182</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2136152166009844</v>
+        <v>0.2112204744777902</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3088750373128871</v>
+        <v>0.307943830662009</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>186</v>
@@ -2289,19 +2289,19 @@
         <v>186265</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161615</v>
+        <v>164125</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>209081</v>
+        <v>210086</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2362693345920811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2050020567055736</v>
+        <v>0.2081853063305533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2652106896576105</v>
+        <v>0.2664852386666384</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>67292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53797</v>
+        <v>52692</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84348</v>
+        <v>84227</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.150473292218301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1202969095096715</v>
+        <v>0.1178273409712904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1886127104636909</v>
+        <v>0.1883424300621832</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -2339,19 +2339,19 @@
         <v>59619</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46458</v>
+        <v>46514</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>74650</v>
+        <v>74700</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1747554028654613</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1361781205056192</v>
+        <v>0.1363407850516072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2188131087467998</v>
+        <v>0.2189611427325746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>123</v>
@@ -2360,19 +2360,19 @@
         <v>126911</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108326</v>
+        <v>106538</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152184</v>
+        <v>148717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1609812619932346</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.13740691020382</v>
+        <v>0.1351394643648491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1930389349642542</v>
+        <v>0.1886413463845813</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>490573</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>448993</v>
+        <v>450953</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>534102</v>
+        <v>532538</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1521394485967991</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1392445411836785</v>
+        <v>0.1398524410431155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.165638950968248</v>
+        <v>0.165153900874758</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>420</v>
@@ -2485,19 +2485,19 @@
         <v>431493</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>391967</v>
+        <v>395325</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>468925</v>
+        <v>471287</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1308495036536782</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1188632173297217</v>
+        <v>0.1198815904052476</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1422007807610178</v>
+        <v>0.1429169015587983</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>904</v>
@@ -2506,19 +2506,19 @@
         <v>922066</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>870344</v>
+        <v>868915</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>981130</v>
+        <v>978194</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1413751117368933</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1334449529839709</v>
+        <v>0.1332258318240782</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1504311713870624</v>
+        <v>0.1499809970335093</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>652740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>606460</v>
+        <v>607276</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>701584</v>
+        <v>699359</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2024317991484387</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1880791719307526</v>
+        <v>0.1883321407217576</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2175794872170467</v>
+        <v>0.2168895797100322</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>663</v>
@@ -2556,19 +2556,19 @@
         <v>676220</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>626310</v>
+        <v>629632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>723057</v>
+        <v>726051</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2050626501993891</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1899273979114083</v>
+        <v>0.1909349719845422</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2192657396123906</v>
+        <v>0.2201736439095887</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1306</v>
@@ -2577,19 +2577,19 @@
         <v>1328960</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1260003</v>
+        <v>1268586</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1395627</v>
+        <v>1391976</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2037619748260333</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1931891101589469</v>
+        <v>0.194505189136325</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.21398358914675</v>
+        <v>0.2134238239845967</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>963470</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>908662</v>
+        <v>912100</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1011433</v>
+        <v>1019076</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2987973774614348</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2817998532567059</v>
+        <v>0.2828662155372673</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3136719609279828</v>
+        <v>0.3160421054988259</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1069</v>
@@ -2627,19 +2627,19 @@
         <v>1093060</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1041413</v>
+        <v>1033564</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1143933</v>
+        <v>1143545</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3314688041657493</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3158069143034123</v>
+        <v>0.3134266142093804</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3468957574993717</v>
+        <v>0.3467780580989324</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2007</v>
@@ -2648,19 +2648,19 @@
         <v>2056531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1981912</v>
+        <v>1979692</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2132736</v>
+        <v>2129317</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.315316266715425</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3038753726963151</v>
+        <v>0.3035349368213441</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3270003122966126</v>
+        <v>0.3264760919743105</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>670147</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>623554</v>
+        <v>625301</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>718595</v>
+        <v>718077</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2078301648979598</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1933804720175018</v>
+        <v>0.1939221309361818</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2228552574207574</v>
+        <v>0.222694605190835</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>619</v>
@@ -2698,19 +2698,19 @@
         <v>636453</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>592348</v>
+        <v>593195</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>681214</v>
+        <v>679132</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1930034715346863</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1796286539994902</v>
+        <v>0.1798852888511815</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2065770749732672</v>
+        <v>0.2059456629298959</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1276</v>
@@ -2719,19 +2719,19 @@
         <v>1306601</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1245620</v>
+        <v>1244496</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1369639</v>
+        <v>1370911</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2003336907498491</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1909838694991279</v>
+        <v>0.1908114858627043</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2099990034746356</v>
+        <v>0.2101940116105315</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>447564</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>411117</v>
+        <v>406039</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>491845</v>
+        <v>487575</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1388012098953677</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.127498124048463</v>
+        <v>0.1259232193844597</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1525339070232399</v>
+        <v>0.1512096753876289</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>447</v>
@@ -2769,19 +2769,19 @@
         <v>460400</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>421039</v>
+        <v>419582</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>502913</v>
+        <v>503232</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1396155704464971</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1276792743017785</v>
+        <v>0.1272376099688883</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1525076014794022</v>
+        <v>0.1526043536889201</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>886</v>
@@ -2790,19 +2790,19 @@
         <v>907964</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>849170</v>
+        <v>847606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>965358</v>
+        <v>958722</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1392129559717994</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1301984257400439</v>
+        <v>0.1299586773469097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1480128246023078</v>
+        <v>0.1469954431719462</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>203788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179136</v>
+        <v>177555</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232055</v>
+        <v>230451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1965787270393161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1727983086059431</v>
+        <v>0.1712731812162417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2238450828510234</v>
+        <v>0.2222977625965203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -3155,19 +3155,19 @@
         <v>184824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159673</v>
+        <v>160473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>211235</v>
+        <v>209818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1661090447212009</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1435043904731379</v>
+        <v>0.1442230546628197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1898453009636911</v>
+        <v>0.1885714834518771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>359</v>
@@ -3176,19 +3176,19 @@
         <v>388613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>348748</v>
+        <v>351591</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427281</v>
+        <v>429162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1808052421999032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1622579522642617</v>
+        <v>0.1635807014000917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1987959495751488</v>
+        <v>0.1996708988021992</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>138144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117880</v>
+        <v>117767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161787</v>
+        <v>161732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1332569850024262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1137099704642666</v>
+        <v>0.1136007804155439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1560633405255147</v>
+        <v>0.1560100342785966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -3226,19 +3226,19 @@
         <v>165241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141888</v>
+        <v>141057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190592</v>
+        <v>190480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1485082887737868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.127520116346195</v>
+        <v>0.126773868403683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.171292462897528</v>
+        <v>0.1711924155063843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -3247,19 +3247,19 @@
         <v>303385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>269724</v>
+        <v>270308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341261</v>
+        <v>338333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1411522497546882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1254910878398686</v>
+        <v>0.1257630178617253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1587744018443325</v>
+        <v>0.1574121547617159</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>255039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>227837</v>
+        <v>227218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>284921</v>
+        <v>286955</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2460158177533945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2197767400347708</v>
+        <v>0.219179342844841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2748408665265023</v>
+        <v>0.2768033398176271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>256</v>
@@ -3297,19 +3297,19 @@
         <v>276800</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251182</v>
+        <v>248316</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>310260</v>
+        <v>309802</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.248771310591474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2257477270812688</v>
+        <v>0.2231712270227806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2788434323598885</v>
+        <v>0.2784316016543404</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>496</v>
@@ -3318,19 +3318,19 @@
         <v>531839</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>494461</v>
+        <v>489425</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>575308</v>
+        <v>572079</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2474422758323722</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2300518353005521</v>
+        <v>0.2277088412184023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.267666543334658</v>
+        <v>0.2661642623770765</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>259815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>234447</v>
+        <v>233200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289945</v>
+        <v>291458</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2506233884681087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2261525387223861</v>
+        <v>0.2249498664341516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2796867657790761</v>
+        <v>0.2811470368475825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -3368,19 +3368,19 @@
         <v>270929</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242561</v>
+        <v>239882</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301440</v>
+        <v>301327</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2434950697617524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2179990595033076</v>
+        <v>0.2155911299871809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2709161310219242</v>
+        <v>0.2708144877808099</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>489</v>
@@ -3389,19 +3389,19 @@
         <v>530745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>489979</v>
+        <v>489571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>574984</v>
+        <v>573963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2469332145479702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2279666423873444</v>
+        <v>0.2277766197487264</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2675159055099949</v>
+        <v>0.2670407401477185</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>179889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154732</v>
+        <v>156607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>205773</v>
+        <v>204028</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1735250817367546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.149257517259848</v>
+        <v>0.1510663579954952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1984927686739585</v>
+        <v>0.1968102262246414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -3439,19 +3439,19 @@
         <v>214875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189865</v>
+        <v>187568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>244278</v>
+        <v>242934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.193116286151786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1706393248152034</v>
+        <v>0.1685744308819279</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2195424096279638</v>
+        <v>0.2183340413937661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>368</v>
@@ -3460,19 +3460,19 @@
         <v>394764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355665</v>
+        <v>361244</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>431417</v>
+        <v>436016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1836670176650663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1654759109409517</v>
+        <v>0.1680715834972003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2007202501700462</v>
+        <v>0.2028597293445277</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>128788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108017</v>
+        <v>107517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152550</v>
+        <v>154752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.13251922385345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1111465511212593</v>
+        <v>0.1106315803188183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1569698769995745</v>
+        <v>0.1592355354860883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -3585,19 +3585,19 @@
         <v>139119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118965</v>
+        <v>119420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164486</v>
+        <v>163835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1272509798862681</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1088162460381534</v>
+        <v>0.1092325476055717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1504549074678075</v>
+        <v>0.1498592323687758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -3606,19 +3606,19 @@
         <v>267906</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233725</v>
+        <v>235840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298589</v>
+        <v>302227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1297302289615833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1131784273916627</v>
+        <v>0.1142023997079911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1445878201478338</v>
+        <v>0.1463497595878725</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>129466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108227</v>
+        <v>110028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152798</v>
+        <v>151381</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1332169368909675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1113627688557126</v>
+        <v>0.1132158114950568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1572253082254689</v>
+        <v>0.1557671717211094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -3656,19 +3656,19 @@
         <v>155009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133897</v>
+        <v>133094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182727</v>
+        <v>181226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1417862658403612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1224751703618993</v>
+        <v>0.121740054172622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1671393513523346</v>
+        <v>0.1657660817168389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -3677,19 +3677,19 @@
         <v>284475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>254839</v>
+        <v>251431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>319140</v>
+        <v>315734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.137753517735641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1234024759012848</v>
+        <v>0.1217523818714611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1545394172189784</v>
+        <v>0.1528902500845544</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>280510</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>252915</v>
+        <v>252351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>309411</v>
+        <v>307752</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.28863715190158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2602425283984376</v>
+        <v>0.2596624218519686</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3183753949440029</v>
+        <v>0.3166688090366622</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>318</v>
@@ -3727,19 +3727,19 @@
         <v>341426</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>308384</v>
+        <v>310571</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>370246</v>
+        <v>374003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3123009074750368</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2820773480621</v>
+        <v>0.2840779200818935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3386617318017576</v>
+        <v>0.3420987918302058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>587</v>
@@ -3748,19 +3748,19 @@
         <v>621936</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>580034</v>
+        <v>578827</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>667890</v>
+        <v>666187</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3011646836233231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2808740729406471</v>
+        <v>0.2802893305081175</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3234170798967866</v>
+        <v>0.322592416456682</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>254558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224761</v>
+        <v>226832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>284247</v>
+        <v>282133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2619328927778886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2312730917276661</v>
+        <v>0.2334042389287311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2924821183127149</v>
+        <v>0.2903074577769122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>254</v>
@@ -3798,19 +3798,19 @@
         <v>269277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>242000</v>
+        <v>239468</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303304</v>
+        <v>299190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2463062273745477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2213564631702024</v>
+        <v>0.2190401922510572</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2774305176079557</v>
+        <v>0.2736671212930815</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>495</v>
@@ -3819,19 +3819,19 @@
         <v>523835</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>483601</v>
+        <v>480198</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>567867</v>
+        <v>565453</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2536601760513432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2341776582776839</v>
+        <v>0.2325296853697019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2749823573518949</v>
+        <v>0.2738135247306613</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>178522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>157100</v>
+        <v>153548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205878</v>
+        <v>201613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1836937945761139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1616520133616053</v>
+        <v>0.1579970506458826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2118426684282313</v>
+        <v>0.2074541282876189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -3869,19 +3869,19 @@
         <v>188430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>163142</v>
+        <v>161194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213334</v>
+        <v>213002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1723556194237862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1492248998775906</v>
+        <v>0.1474431199851027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1951355306869739</v>
+        <v>0.19483175976518</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>351</v>
@@ -3890,19 +3890,19 @@
         <v>366951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331837</v>
+        <v>332687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>403523</v>
+        <v>403414</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1776913936281094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.160687955558399</v>
+        <v>0.1610994116473113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1954006329640424</v>
+        <v>0.1953478808762703</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>93522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77639</v>
+        <v>76583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115258</v>
+        <v>113169</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1060652408644348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08805165858549512</v>
+        <v>0.08685338433472603</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1307152788870707</v>
+        <v>0.1283465337127607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -4015,19 +4015,19 @@
         <v>94111</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76964</v>
+        <v>76592</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114489</v>
+        <v>113821</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1078226608073778</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08817692616219955</v>
+        <v>0.08775119671073436</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.131169088713889</v>
+        <v>0.1304040305695811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -4036,19 +4036,19 @@
         <v>187634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>163544</v>
+        <v>160913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213081</v>
+        <v>216776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1069394894056444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09320990584176998</v>
+        <v>0.09171025588792682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1214425175142472</v>
+        <v>0.123548590566641</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>102013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84423</v>
+        <v>83193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122219</v>
+        <v>123949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1156945107456158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09574568176189061</v>
+        <v>0.09435051836284485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1386101577838021</v>
+        <v>0.1405725707517026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -4086,19 +4086,19 @@
         <v>116318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96521</v>
+        <v>95138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136992</v>
+        <v>137677</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1332644138720859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1105826795344295</v>
+        <v>0.1089984470282332</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1569504174597699</v>
+        <v>0.1577348297775787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -4107,19 +4107,19 @@
         <v>218331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192915</v>
+        <v>192459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>251879</v>
+        <v>248611</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.124434858912934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1099492163440178</v>
+        <v>0.1096894334595563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1435553440286796</v>
+        <v>0.1416925987854908</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>272432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>244121</v>
+        <v>244395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>302702</v>
+        <v>300532</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3089691474397863</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2768607868187131</v>
+        <v>0.2771714305688081</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3432988094840964</v>
+        <v>0.3408375667134038</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>264</v>
@@ -4157,19 +4157,19 @@
         <v>281654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>250653</v>
+        <v>254451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>311406</v>
+        <v>308159</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3226882597872756</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2871706063159047</v>
+        <v>0.2915216253209725</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3567753201117193</v>
+        <v>0.3530550233260337</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>517</v>
@@ -4178,19 +4178,19 @@
         <v>554086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>513119</v>
+        <v>513492</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>593788</v>
+        <v>595282</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3157938759314853</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2924451377042701</v>
+        <v>0.2926579118899658</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.33842163198127</v>
+        <v>0.3392730849087661</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>243699</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>217476</v>
+        <v>218207</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270758</v>
+        <v>273645</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2763830514880454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.246642199666377</v>
+        <v>0.2474720135519503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3070702196734464</v>
+        <v>0.3103451784345997</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -4228,19 +4228,19 @@
         <v>239960</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>214829</v>
+        <v>213750</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>267390</v>
+        <v>265134</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2749201189477798</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2461273115954209</v>
+        <v>0.2448918526427972</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3063458964198696</v>
+        <v>0.3037611776732</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>452</v>
@@ -4249,19 +4249,19 @@
         <v>483660</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>447056</v>
+        <v>448980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>524831</v>
+        <v>525451</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.275655299055082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2547933799445162</v>
+        <v>0.2558903529364233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.299120489380738</v>
+        <v>0.2994735478502975</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>170078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148243</v>
+        <v>146287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196771</v>
+        <v>196269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1928880494621176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.168124419816419</v>
+        <v>0.1659066368289137</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2231605565859341</v>
+        <v>0.2225920264175296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -4299,19 +4299,19 @@
         <v>140792</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119550</v>
+        <v>121242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162725</v>
+        <v>168549</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1613045465854808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1369677819732806</v>
+        <v>0.1389056591328328</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1864327939498601</v>
+        <v>0.1931052790455048</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>295</v>
@@ -4320,19 +4320,19 @@
         <v>310870</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277541</v>
+        <v>276989</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>343528</v>
+        <v>346206</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1771764766948543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1581808723582407</v>
+        <v>0.1578660159746933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1957891018155687</v>
+        <v>0.1973153629491865</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>84287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68600</v>
+        <v>67701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102204</v>
+        <v>102933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1681988929517927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1368956494183241</v>
+        <v>0.1351015537954717</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2039534064636709</v>
+        <v>0.2054085507952999</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -4445,19 +4445,19 @@
         <v>78615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63219</v>
+        <v>62269</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97158</v>
+        <v>97439</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1751642261274934</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.140861818563289</v>
+        <v>0.138744766812626</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2164805509887886</v>
+        <v>0.217106659082919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>154</v>
@@ -4466,19 +4466,19 @@
         <v>162901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139693</v>
+        <v>141499</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186610</v>
+        <v>187676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.171489784145671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.147058378737276</v>
+        <v>0.1489594900446184</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1964486165064699</v>
+        <v>0.197571115133631</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>81365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65116</v>
+        <v>66027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101225</v>
+        <v>102226</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1623694645727932</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1299436683181401</v>
+        <v>0.1317603188281643</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2020000428304469</v>
+        <v>0.2039984486326419</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>74</v>
@@ -4516,19 +4516,19 @@
         <v>82381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67108</v>
+        <v>64694</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>100604</v>
+        <v>99642</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1835553308739988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.149526550451954</v>
+        <v>0.1441474504664367</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2241607053292299</v>
+        <v>0.2220163380091845</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>148</v>
@@ -4537,19 +4537,19 @@
         <v>163746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>140347</v>
+        <v>138596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>190333</v>
+        <v>189059</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1723790906863791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1477468433412976</v>
+        <v>0.1459033848694979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2003676761584157</v>
+        <v>0.1990267391147225</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>121887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102992</v>
+        <v>103504</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>146241</v>
+        <v>145031</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2432318891021498</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2055266096101961</v>
+        <v>0.2065477815940771</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2918327680602406</v>
+        <v>0.2894182896383509</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -4587,19 +4587,19 @@
         <v>108436</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90204</v>
+        <v>88766</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127469</v>
+        <v>126747</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2416108058801041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2009877092833179</v>
+        <v>0.1977830071747594</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2840181662068981</v>
+        <v>0.2824103999594184</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -4608,19 +4608,19 @@
         <v>230323</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>205394</v>
+        <v>202029</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>261325</v>
+        <v>257888</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2424659805138018</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2162226130876398</v>
+        <v>0.2126808407167917</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2751029005790794</v>
+        <v>0.2714845952558577</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>113991</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95824</v>
+        <v>96226</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133258</v>
+        <v>134007</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2274754848485277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1912214983995948</v>
+        <v>0.1920239972322067</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2659245162535176</v>
+        <v>0.2674185627322301</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -4658,19 +4658,19 @@
         <v>95904</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79182</v>
+        <v>78125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115529</v>
+        <v>115535</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2136870464989266</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.176427546035882</v>
+        <v>0.1740733661952183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2574152794404702</v>
+        <v>0.2574288434909168</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -4679,19 +4679,19 @@
         <v>209895</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>185959</v>
+        <v>184855</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235465</v>
+        <v>239344</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2209609005210564</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1957631137068487</v>
+        <v>0.1946009773639177</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2478799171767714</v>
+        <v>0.2519628169207872</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>99583</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81569</v>
+        <v>80621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118384</v>
+        <v>119401</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1987242685247366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1627747462966655</v>
+        <v>0.1608842404841552</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2362426438396849</v>
+        <v>0.2382720872198712</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -4729,19 +4729,19 @@
         <v>83470</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67981</v>
+        <v>68411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>101531</v>
+        <v>106624</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1859825906194772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1514709252741935</v>
+        <v>0.1524301090360043</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2262247778102908</v>
+        <v>0.2375722707522127</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>171</v>
@@ -4750,19 +4750,19 @@
         <v>183053</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>158442</v>
+        <v>159276</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>208309</v>
+        <v>208766</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1927042441330917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.166795121225945</v>
+        <v>0.1676736693963341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2192915145197244</v>
+        <v>0.2197733799060925</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>510385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>466514</v>
+        <v>467550</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>557410</v>
+        <v>555587</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1504950625766285</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1375589100463249</v>
+        <v>0.1378642095149385</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1643610240017719</v>
+        <v>0.1638235618649569</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>457</v>
@@ -4875,19 +4875,19 @@
         <v>496669</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>450504</v>
+        <v>454510</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>534926</v>
+        <v>538391</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.140796308745581</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1277095160593612</v>
+        <v>0.1288451646474111</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1516414155394099</v>
+        <v>0.1526236332606354</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>930</v>
@@ -4896,19 +4896,19 @@
         <v>1007054</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>945876</v>
+        <v>943195</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1064125</v>
+        <v>1070439</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1455502297903484</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1367081495571356</v>
+        <v>0.1363206078892948</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1537986388820894</v>
+        <v>0.154711197962874</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>450989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>405861</v>
+        <v>409712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>487752</v>
+        <v>491857</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1329810174311018</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1196743581243954</v>
+        <v>0.1208100672347761</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1438213306386999</v>
+        <v>0.1450316576200843</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>477</v>
@@ -4946,19 +4946,19 @@
         <v>518948</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>474480</v>
+        <v>474827</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>561330</v>
+        <v>562002</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1471121287550596</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1345061874895311</v>
+        <v>0.1346046488728328</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1591265832959594</v>
+        <v>0.1593169854996622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>901</v>
@@ -4967,19 +4967,19 @@
         <v>969937</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>915030</v>
+        <v>910054</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1032596</v>
+        <v>1030305</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1401856525624312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1322498919253235</v>
+        <v>0.1315307591083565</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1492417364817526</v>
+        <v>0.1489106090303454</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>929867</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>881435</v>
+        <v>879435</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>988338</v>
+        <v>987854</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2741857801802317</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.259904782246611</v>
+        <v>0.259314950088062</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2914267407212898</v>
+        <v>0.2912839841816135</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>936</v>
@@ -5017,19 +5017,19 @@
         <v>1008316</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>956562</v>
+        <v>952761</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1063461</v>
+        <v>1061280</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2858387890867081</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2711673277251166</v>
+        <v>0.2700899185107883</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.301471390402364</v>
+        <v>0.3008530321715586</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1805</v>
@@ -5038,19 +5038,19 @@
         <v>1938184</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1856122</v>
+        <v>1859374</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2019211</v>
+        <v>2020519</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2801269744308888</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2682665985177635</v>
+        <v>0.2687366006678266</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2918378892822185</v>
+        <v>0.2920269337706849</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>872063</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>820621</v>
+        <v>820349</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>925963</v>
+        <v>927085</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2571413330628858</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2419729320738635</v>
+        <v>0.2418925784132253</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2730343834704206</v>
+        <v>0.273365328011388</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>812</v>
@@ -5088,19 +5088,19 @@
         <v>876070</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>822081</v>
+        <v>824101</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>931846</v>
+        <v>934534</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2483494786036362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2330445535239207</v>
+        <v>0.2336172747014457</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2641609327145489</v>
+        <v>0.2649228919806915</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1626</v>
@@ -5109,19 +5109,19 @@
         <v>1748133</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1674272</v>
+        <v>1673144</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1823268</v>
+        <v>1819207</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2526588757349009</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2419836031582257</v>
+        <v>0.2418206593942875</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2635181476060848</v>
+        <v>0.2629312432868429</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>628072</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>581907</v>
+        <v>584483</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>674041</v>
+        <v>677774</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1851968067491523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.171584384136514</v>
+        <v>0.1723437314193255</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1987514169054343</v>
+        <v>0.1998520745281137</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>589</v>
@@ -5159,19 +5159,19 @@
         <v>627566</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>581168</v>
+        <v>584297</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>676605</v>
+        <v>674907</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1779032948090151</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.164750235145729</v>
+        <v>0.1656372749996016</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1918048932750757</v>
+        <v>0.1913235834833758</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1185</v>
@@ -5180,19 +5180,19 @@
         <v>1255639</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1196853</v>
+        <v>1187753</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1327797</v>
+        <v>1323165</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1814782674814307</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1729819913112008</v>
+        <v>0.1716667511804975</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1919073470714425</v>
+        <v>0.1912379864702083</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>240201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>211250</v>
+        <v>211790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>266335</v>
+        <v>269475</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2134302979540331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.187705805010189</v>
+        <v>0.1881863965642944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2366521269888587</v>
+        <v>0.2394416333546551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -5545,19 +5545,19 @@
         <v>287283</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258529</v>
+        <v>257033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>318508</v>
+        <v>319334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2282504261079138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2054048547591075</v>
+        <v>0.2042161895570742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2530585294152998</v>
+        <v>0.2537148338455681</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>490</v>
@@ -5566,19 +5566,19 @@
         <v>527484</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>488834</v>
+        <v>488134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>571793</v>
+        <v>567768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2212543794338072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2050426731422803</v>
+        <v>0.2047492314581642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2398401881820207</v>
+        <v>0.2381517178775894</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>202701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176600</v>
+        <v>176378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>228195</v>
+        <v>230788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1801101995686538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1569180251064266</v>
+        <v>0.1567206246967537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2027630624320722</v>
+        <v>0.2050669688456388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -5616,19 +5616,19 @@
         <v>247511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219101</v>
+        <v>218388</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276716</v>
+        <v>280680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1966507546517385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.17407887666776</v>
+        <v>0.173512270569241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2198546230327107</v>
+        <v>0.2230042009139225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>426</v>
@@ -5637,19 +5637,19 @@
         <v>450212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>409288</v>
+        <v>412555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>490016</v>
+        <v>493774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1888425566270412</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1716770801578227</v>
+        <v>0.1730473525139871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2055383688880761</v>
+        <v>0.2071148967498869</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>293591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>262752</v>
+        <v>263787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>325032</v>
+        <v>323244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2608704901957013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2334680436132166</v>
+        <v>0.2343880785820466</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2888068921328766</v>
+        <v>0.2872186068767662</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>303</v>
@@ -5687,19 +5687,19 @@
         <v>323410</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>290670</v>
+        <v>294198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>354644</v>
+        <v>356073</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2569535299786396</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2309412103526582</v>
+        <v>0.2337441004548468</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2817691025803066</v>
+        <v>0.2829051040978708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>580</v>
@@ -5708,19 +5708,19 @@
         <v>617001</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>574557</v>
+        <v>572659</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>658465</v>
+        <v>662150</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2588025852779358</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2409994693784646</v>
+        <v>0.2402032487110068</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2761948957601131</v>
+        <v>0.2777404971105248</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>251584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222896</v>
+        <v>225488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279606</v>
+        <v>283050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2235446014848662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1980541544602852</v>
+        <v>0.2003572973119264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2484437510179292</v>
+        <v>0.2515044482151116</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>258</v>
@@ -5758,19 +5758,19 @@
         <v>265042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237139</v>
+        <v>239782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>297373</v>
+        <v>298239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2105791211927924</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1884097380367677</v>
+        <v>0.1905101472497958</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2362671565676757</v>
+        <v>0.2369547323264172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>498</v>
@@ -5779,19 +5779,19 @@
         <v>516625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>475461</v>
+        <v>478419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>557279</v>
+        <v>559668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2166996556668351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.199433351537257</v>
+        <v>0.2006738809564611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2337521182900265</v>
+        <v>0.2347539714432218</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>137352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>115958</v>
+        <v>117086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>161209</v>
+        <v>164019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1220444107967457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1030348930808166</v>
+        <v>0.104036759256082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1432422169087628</v>
+        <v>0.1457386488053329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -5829,19 +5829,19 @@
         <v>135386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113356</v>
+        <v>114233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157140</v>
+        <v>158603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1075661680689158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09006298706436582</v>
+        <v>0.09075974197037209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1248500419288629</v>
+        <v>0.1260120153039176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>256</v>
@@ -5850,19 +5850,19 @@
         <v>272738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>242084</v>
+        <v>243000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305515</v>
+        <v>308054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1144008229943808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1015427528138982</v>
+        <v>0.1019269735812448</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1281491554937203</v>
+        <v>0.1292140510046653</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>180345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154243</v>
+        <v>158659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204290</v>
+        <v>204114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1991254344871869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1703050382384959</v>
+        <v>0.1751810454901204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2255641158865241</v>
+        <v>0.225369556296025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -5975,19 +5975,19 @@
         <v>197032</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170706</v>
+        <v>172339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224469</v>
+        <v>225446</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1961975554543687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1699827367097131</v>
+        <v>0.1716085386804926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2235175552958849</v>
+        <v>0.2244910876219702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>350</v>
@@ -5996,19 +5996,19 @@
         <v>377377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>341690</v>
+        <v>343070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>415346</v>
+        <v>417860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1975859419161716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.17890122281004</v>
+        <v>0.1796233437120115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2174658397601343</v>
+        <v>0.2187819224294369</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>176871</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154218</v>
+        <v>154523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>203694</v>
+        <v>202782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1952902392588281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1702774836046419</v>
+        <v>0.1706147792033917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2249065287340799</v>
+        <v>0.22389948530489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>179</v>
@@ -6046,19 +6046,19 @@
         <v>187638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162803</v>
+        <v>163271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>211543</v>
+        <v>214207</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1868430462714401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1621135033740457</v>
+        <v>0.162578965064404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2106466029138282</v>
+        <v>0.2132995955356344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>350</v>
@@ -6067,19 +6067,19 @@
         <v>364509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334196</v>
+        <v>332147</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>398977</v>
+        <v>401093</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1908486654423378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1749774914132927</v>
+        <v>0.1739044355368741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2088950707765619</v>
+        <v>0.2100028020319895</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>220813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193912</v>
+        <v>192684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>246503</v>
+        <v>244579</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2438085008762534</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2141057749644253</v>
+        <v>0.2127492612997302</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2721731481619366</v>
+        <v>0.2700493858310857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>247</v>
@@ -6117,19 +6117,19 @@
         <v>261256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>233110</v>
+        <v>234672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>290115</v>
+        <v>291252</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2601486194297399</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2321223239233811</v>
+        <v>0.2336777512487536</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2888855394010273</v>
+        <v>0.2900184420978329</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>462</v>
@@ -6138,19 +6138,19 @@
         <v>482069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>443662</v>
+        <v>444932</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>521891</v>
+        <v>520901</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2524002120913129</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2322909776148808</v>
+        <v>0.2329562487807322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2732501188249933</v>
+        <v>0.2727317760754175</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>217628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195822</v>
+        <v>193476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245543</v>
+        <v>243713</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.240291424519302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2162149028801791</v>
+        <v>0.2136246455301301</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2711129797532315</v>
+        <v>0.2690927560042313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -6188,19 +6188,19 @@
         <v>217581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>194427</v>
+        <v>191478</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243073</v>
+        <v>244558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2166591355941556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1936035161747108</v>
+        <v>0.1906668069019928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2420427646677841</v>
+        <v>0.2435215397587699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>425</v>
@@ -6209,19 +6209,19 @@
         <v>435209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>397472</v>
+        <v>399532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>472665</v>
+        <v>473248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2278654558134396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2081070165599386</v>
+        <v>0.2091859523287956</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2474763407757808</v>
+        <v>0.2477819675350818</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>110026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92003</v>
+        <v>91539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130742</v>
+        <v>129572</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1214844008584295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1015839247127926</v>
+        <v>0.1010719935321686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1443567534775632</v>
+        <v>0.1430648967796275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -6259,19 +6259,19 @@
         <v>140748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120631</v>
+        <v>121277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165563</v>
+        <v>165507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1401516432502957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1201196519027339</v>
+        <v>0.1207630443533058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1648617763299411</v>
+        <v>0.1648056020273465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>240</v>
@@ -6280,19 +6280,19 @@
         <v>250774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>221180</v>
+        <v>222324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>282260</v>
+        <v>281331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1312997247367381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1158046943582192</v>
+        <v>0.1164038179894325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1477846672928365</v>
+        <v>0.1472986169773973</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>139836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118583</v>
+        <v>118451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160032</v>
+        <v>163244</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1703093757117263</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1444249972419255</v>
+        <v>0.1442643032884502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.194907069447147</v>
+        <v>0.1988185345977289</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -6405,19 +6405,19 @@
         <v>130916</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109872</v>
+        <v>110181</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152858</v>
+        <v>154281</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1697873871791119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1424955303950785</v>
+        <v>0.1428960125069232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1982441225581743</v>
+        <v>0.2000900240628873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>251</v>
@@ -6426,19 +6426,19 @@
         <v>270752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241733</v>
+        <v>242382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303495</v>
+        <v>305552</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1700565796025892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1518302802519819</v>
+        <v>0.1522375603370742</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1906221949248933</v>
+        <v>0.1919144278992006</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>165409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143326</v>
+        <v>143074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192582</v>
+        <v>190287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.201455107911806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1745596769861432</v>
+        <v>0.1742528027055342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2345502293429493</v>
+        <v>0.2317548955541005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>151</v>
@@ -6476,19 +6476,19 @@
         <v>160335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137943</v>
+        <v>138908</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183295</v>
+        <v>183868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.207941438685628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1789008990619829</v>
+        <v>0.1801527871631545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.237718845236865</v>
+        <v>0.2384615533015239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>308</v>
@@ -6497,19 +6497,19 @@
         <v>325744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>293367</v>
+        <v>292828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>359053</v>
+        <v>358840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.204596401407251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.184260887454582</v>
+        <v>0.183922460842302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2255174340897568</v>
+        <v>0.2253839984486795</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>229173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>203750</v>
+        <v>204900</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>253404</v>
+        <v>255718</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2791148697960883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2481522966286239</v>
+        <v>0.2495519517592397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3086261981286463</v>
+        <v>0.3114446662515015</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>209</v>
@@ -6547,19 +6547,19 @@
         <v>217776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193207</v>
+        <v>195607</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243011</v>
+        <v>246015</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2824380020096733</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2505741047114672</v>
+        <v>0.253685976153903</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3151651314410507</v>
+        <v>0.3190613172122055</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>430</v>
@@ -6568,19 +6568,19 @@
         <v>446949</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>408707</v>
+        <v>413287</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>483675</v>
+        <v>485454</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.280724244027999</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2567046142919887</v>
+        <v>0.2595814997358183</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3037915673593154</v>
+        <v>0.3049090131432241</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>195574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>172541</v>
+        <v>172150</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>222185</v>
+        <v>221700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.238194091997693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2101414690876643</v>
+        <v>0.2096659953403911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2706038692959873</v>
+        <v>0.2700135790780709</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>179</v>
@@ -6618,19 +6618,19 @@
         <v>185780</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162853</v>
+        <v>163923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>212445</v>
+        <v>210334</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2409410354095995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2112072074105358</v>
+        <v>0.2125945416493077</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2755238209910851</v>
+        <v>0.2727858523283087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>368</v>
@@ -6639,19 +6639,19 @@
         <v>381354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>342288</v>
+        <v>348441</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>413654</v>
+        <v>416487</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2395244212351415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2149874389078426</v>
+        <v>0.2188525390472054</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2598120603056594</v>
+        <v>0.2615916089106984</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>91078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72924</v>
+        <v>72867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111686</v>
+        <v>109984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1109265545826864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08881555932533544</v>
+        <v>0.08874687770074279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1360248762359947</v>
+        <v>0.1339526275876938</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -6689,19 +6689,19 @@
         <v>76252</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>59607</v>
+        <v>60423</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95575</v>
+        <v>95270</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09889213671598716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07730593916395287</v>
+        <v>0.07836374730114479</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1239530703323584</v>
+        <v>0.1235571322507008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -6710,19 +6710,19 @@
         <v>167330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142138</v>
+        <v>144496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192646</v>
+        <v>196205</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1050983537270193</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08927556488118728</v>
+        <v>0.09075649077540085</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1209990313819352</v>
+        <v>0.1232342293942259</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>102407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83256</v>
+        <v>84740</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120063</v>
+        <v>121841</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2029788645108654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.165020201976555</v>
+        <v>0.1679614535311398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2379750213309009</v>
+        <v>0.2414985388010231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -6835,19 +6835,19 @@
         <v>84415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66309</v>
+        <v>68396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102987</v>
+        <v>104753</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1735525141459684</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1363281692343641</v>
+        <v>0.1406180887423012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2117347262640626</v>
+        <v>0.2153665757901075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -6856,19 +6856,19 @@
         <v>186822</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>162590</v>
+        <v>162700</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213119</v>
+        <v>215721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1885348187211598</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1640810151283017</v>
+        <v>0.1641919680597941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2150724690812907</v>
+        <v>0.2176990657455629</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>90877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73749</v>
+        <v>74670</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109531</v>
+        <v>111292</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1801259426044291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1461764699030226</v>
+        <v>0.1480012391581387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2170997175929129</v>
+        <v>0.2205908487735184</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -6906,19 +6906,19 @@
         <v>102893</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>84482</v>
+        <v>85686</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>123438</v>
+        <v>124124</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2115428504022739</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1736891308216609</v>
+        <v>0.1761662796348852</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2537817286939615</v>
+        <v>0.2551917155000803</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>176</v>
@@ -6927,19 +6927,19 @@
         <v>193771</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>171489</v>
+        <v>169895</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>221803</v>
+        <v>224422</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.195547061743429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1730609285800029</v>
+        <v>0.1714523922001783</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2238366224025396</v>
+        <v>0.2264796512194505</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>134291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>115909</v>
+        <v>113984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155525</v>
+        <v>155199</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2661756475780347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2297411842836308</v>
+        <v>0.2259264379750991</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3082626656742656</v>
+        <v>0.3076168810575072</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -6977,19 +6977,19 @@
         <v>98525</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>80541</v>
+        <v>82403</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116369</v>
+        <v>117022</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2025611878642241</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1655868612272188</v>
+        <v>0.1694160349394704</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.239248714630324</v>
+        <v>0.2405911086488174</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>222</v>
@@ -6998,19 +6998,19 @@
         <v>232816</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>206684</v>
+        <v>204310</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>260990</v>
+        <v>259613</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2349502269057597</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.208579301780836</v>
+        <v>0.2061835924210671</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2633828344342174</v>
+        <v>0.2619935157395671</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>103940</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85718</v>
+        <v>86258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>123269</v>
+        <v>122929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2060174590748721</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1698995224308728</v>
+        <v>0.1709713631154513</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2443290516298315</v>
+        <v>0.2436557926987856</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>117</v>
@@ -7048,19 +7048,19 @@
         <v>122643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105390</v>
+        <v>104814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142563</v>
+        <v>142970</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2521473600426693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2166759255294689</v>
+        <v>0.215492119097941</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2931018187813972</v>
+        <v>0.2939372915181622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>214</v>
@@ -7069,19 +7069,19 @@
         <v>226583</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>199698</v>
+        <v>199449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>254065</v>
+        <v>253615</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2286605117671382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2015287891214443</v>
+        <v>0.2012777307686598</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2563947340093916</v>
+        <v>0.2559397707907692</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>73005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57134</v>
+        <v>56310</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89685</v>
+        <v>90168</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1447020862317987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1132442004097466</v>
+        <v>0.1116119228757526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1777626082854952</v>
+        <v>0.178719993852603</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>74</v>
@@ -7119,19 +7119,19 @@
         <v>77919</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63333</v>
+        <v>62580</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94927</v>
+        <v>93433</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1601960875448643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1302080257939193</v>
+        <v>0.1286605304048903</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1951645802302135</v>
+        <v>0.1920923700657934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>141</v>
@@ -7140,19 +7140,19 @@
         <v>150924</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130471</v>
+        <v>129338</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175351</v>
+        <v>175536</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1523073808625133</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1316673497118118</v>
+        <v>0.1305235225733367</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1769582300060064</v>
+        <v>0.1771456641184</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>662788</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>618312</v>
+        <v>617954</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>716492</v>
+        <v>711515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1974521403831499</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1842021204365098</v>
+        <v>0.1840954920423566</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2134510359955185</v>
+        <v>0.2119683168513464</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>626</v>
@@ -7265,19 +7265,19 @@
         <v>699647</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>654104</v>
+        <v>650808</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>748991</v>
+        <v>745795</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1987440505799662</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1858069407550694</v>
+        <v>0.1848708148148586</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2127609533507129</v>
+        <v>0.2118529789685747</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1259</v>
@@ -7286,19 +7286,19 @@
         <v>1362435</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1293141</v>
+        <v>1292727</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1425486</v>
+        <v>1423981</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1981134658183552</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1880373786895689</v>
+        <v>0.1879772212622593</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2072818301540834</v>
+        <v>0.2070630132391933</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>635858</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>588641</v>
+        <v>595993</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>683812</v>
+        <v>687674</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1894294394576756</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1753629952996218</v>
+        <v>0.1775529478629265</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2037154731535216</v>
+        <v>0.2048659210821002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>660</v>
@@ -7336,19 +7336,19 @@
         <v>698377</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>653451</v>
+        <v>651682</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>750961</v>
+        <v>747511</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1983834792432593</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1856214220076956</v>
+        <v>0.1851189550928535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2133207169150381</v>
+        <v>0.2123404393596204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1260</v>
@@ -7357,19 +7357,19 @@
         <v>1334236</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1267661</v>
+        <v>1273346</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1396545</v>
+        <v>1404162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.194012988896823</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.184332330148128</v>
+        <v>0.1851589003400306</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2030734343334444</v>
+        <v>0.2041810269388995</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>877868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>822663</v>
+        <v>825925</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>926458</v>
+        <v>929244</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.261526994720141</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2450805369387936</v>
+        <v>0.246052306364174</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2760022374238508</v>
+        <v>0.2768323594368222</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>853</v>
@@ -7407,19 +7407,19 @@
         <v>900966</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>847014</v>
+        <v>850026</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>956052</v>
+        <v>951942</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2559316265726709</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2406058263815602</v>
+        <v>0.2414614678883746</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2715793496975496</v>
+        <v>0.2704119854096316</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1694</v>
@@ -7428,19 +7428,19 @@
         <v>1778835</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1701297</v>
+        <v>1699667</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1852906</v>
+        <v>1857298</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2586627404675017</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2473878552674154</v>
+        <v>0.2471509162009358</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2694335975103451</v>
+        <v>0.2700722447403625</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>768726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>720693</v>
+        <v>722727</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>819727</v>
+        <v>818408</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2290121040698735</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2147026739068778</v>
+        <v>0.2153086821877208</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2442058941707962</v>
+        <v>0.2438129253568851</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>766</v>
@@ -7478,19 +7478,19 @@
         <v>791045</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>742173</v>
+        <v>740382</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>837361</v>
+        <v>838920</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2247070979054825</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2108242378349031</v>
+        <v>0.2103154011491875</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2378635933587224</v>
+        <v>0.2383066504877287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1505</v>
@@ -7499,19 +7499,19 @@
         <v>1559771</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1491283</v>
+        <v>1495256</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1631738</v>
+        <v>1632686</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2268083827258953</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2168494297089022</v>
+        <v>0.2174271476612832</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2372731781368394</v>
+        <v>0.2374110384445994</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>411462</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>376844</v>
+        <v>375779</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>453037</v>
+        <v>451927</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.12257932136916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1122659798911854</v>
+        <v>0.1119488361641738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1349649091384309</v>
+        <v>0.134634106020332</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>411</v>
@@ -7549,19 +7549,19 @@
         <v>430304</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>390754</v>
+        <v>392196</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>469353</v>
+        <v>471557</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1222337456986211</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1109989747546799</v>
+        <v>0.111408606068655</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1333261189593532</v>
+        <v>0.1339522243484626</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>793</v>
@@ -7570,19 +7570,19 @@
         <v>841767</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>790488</v>
+        <v>791118</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>906558</v>
+        <v>901394</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1224024220914249</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1149459843629439</v>
+        <v>0.115037516583915</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1318238563060098</v>
+        <v>0.1310728406885163</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>117517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98111</v>
+        <v>98091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138223</v>
+        <v>137845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.235628548729289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.196718811602953</v>
+        <v>0.1966781106613527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2771439810828659</v>
+        <v>0.2763875826465734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>280</v>
@@ -7935,19 +7935,19 @@
         <v>179722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161313</v>
+        <v>160924</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199977</v>
+        <v>200865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2893960401514773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2597528079264239</v>
+        <v>0.2591262220274458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.322011449528827</v>
+        <v>0.3234405235255438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>402</v>
@@ -7956,19 +7956,19 @@
         <v>297240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271052</v>
+        <v>269656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>326690</v>
+        <v>326301</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2654481969413443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2420615497820603</v>
+        <v>0.2408144221387636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2917488876846132</v>
+        <v>0.2914013309367985</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>113743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95563</v>
+        <v>94618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136050</v>
+        <v>135283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2280611510860463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.191608398100509</v>
+        <v>0.1897151465886526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.272787614609771</v>
+        <v>0.2712500471953926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -8006,19 +8006,19 @@
         <v>154551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135813</v>
+        <v>133954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175291</v>
+        <v>174310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2488646072439757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2186915396410866</v>
+        <v>0.2156985301061668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2822598899298977</v>
+        <v>0.28068010974147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>310</v>
@@ -8027,19 +8027,19 @@
         <v>268294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>239197</v>
+        <v>240423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297391</v>
+        <v>298176</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2395988242750984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2136136788766076</v>
+        <v>0.2147085191026237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2655838004009817</v>
+        <v>0.2662848402982098</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>127899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105600</v>
+        <v>107426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>149588</v>
+        <v>150470</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2564441276733625</v>
+        <v>0.2564441276733626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2117342598867954</v>
+        <v>0.2153947038005321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2999333560948096</v>
+        <v>0.3017007094569856</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>230</v>
@@ -8077,19 +8077,19 @@
         <v>170161</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>150483</v>
+        <v>148635</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>192886</v>
+        <v>191092</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2740000201927547</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2423134241489655</v>
+        <v>0.2393376382471303</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3105923226686392</v>
+        <v>0.3077034057998909</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>341</v>
@@ -8098,19 +8098,19 @@
         <v>298060</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>268802</v>
+        <v>267175</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>328282</v>
+        <v>326408</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2661806901413093</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2400517959987316</v>
+        <v>0.2385987548612735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.293170767585133</v>
+        <v>0.2914970029623284</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>74774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57143</v>
+        <v>55753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96090</v>
+        <v>94802</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1499253425622902</v>
+        <v>0.1499253425622901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1145744715014723</v>
+        <v>0.1117880346238568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1926656855720779</v>
+        <v>0.1900826107234515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -8148,19 +8148,19 @@
         <v>71332</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57153</v>
+        <v>59479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87116</v>
+        <v>87420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1148608339642229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09203017510017061</v>
+        <v>0.09577595006316481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1402768171041442</v>
+        <v>0.1407666757994659</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -8169,19 +8169,19 @@
         <v>146105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123969</v>
+        <v>124640</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174102</v>
+        <v>172494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1304784373140483</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1107102558653829</v>
+        <v>0.1113093305564006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1554812421938132</v>
+        <v>0.1540447917267783</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>64807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49492</v>
+        <v>49680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87582</v>
+        <v>85470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1299408299490121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09923342037639889</v>
+        <v>0.09961092016916458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1756070613962996</v>
+        <v>0.1713722897139025</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -8219,19 +8219,19 @@
         <v>45259</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32611</v>
+        <v>34009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59866</v>
+        <v>61557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07287849844756934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05251131448961047</v>
+        <v>0.05476275449803954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09639781918885236</v>
+        <v>0.09912089159038905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -8240,19 +8240,19 @@
         <v>110066</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89636</v>
+        <v>87392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135305</v>
+        <v>136056</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09829385132819975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08004925057016</v>
+        <v>0.07804487943389267</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1208330854495014</v>
+        <v>0.1215041889051498</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>219198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192648</v>
+        <v>191209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246928</v>
+        <v>247062</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2286890380737342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2009895678148799</v>
+        <v>0.1994882399615976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2576197692410305</v>
+        <v>0.2577600508723313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>458</v>
@@ -8365,19 +8365,19 @@
         <v>275177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251278</v>
+        <v>254652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300095</v>
+        <v>300972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.246680693164115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2252564843601977</v>
+        <v>0.2282808603013836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2690186698726021</v>
+        <v>0.2698049056310442</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>708</v>
@@ -8386,19 +8386,19 @@
         <v>494375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>457986</v>
+        <v>459787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>531363</v>
+        <v>531164</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2383659292084178</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2208211012552596</v>
+        <v>0.2216893136998344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2562002411809032</v>
+        <v>0.2561039984789348</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>216295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187191</v>
+        <v>188751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247150</v>
+        <v>247943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2256604092355487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1952964624325494</v>
+        <v>0.196924094218733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2578516069295783</v>
+        <v>0.2586788816004592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>409</v>
@@ -8436,19 +8436,19 @@
         <v>285628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260983</v>
+        <v>258927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311766</v>
+        <v>309174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2560497776927301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2339562758936025</v>
+        <v>0.2321131041360403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2794809142169085</v>
+        <v>0.2771573586206905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -8457,19 +8457,19 @@
         <v>501923</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>466568</v>
+        <v>464228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>539690</v>
+        <v>539481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.242005465248164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2249589455254556</v>
+        <v>0.2238305851431821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2602148456611843</v>
+        <v>0.2601140603423235</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>335525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>301287</v>
+        <v>301166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>373807</v>
+        <v>368339</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3500535927157248</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3143327795742831</v>
+        <v>0.3142068435548191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3899932698733503</v>
+        <v>0.3842880032408492</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>479</v>
@@ -8507,19 +8507,19 @@
         <v>355047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>327748</v>
+        <v>328931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>384628</v>
+        <v>386290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3182800549703716</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2938077600276877</v>
+        <v>0.2948684455930976</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3447975165459127</v>
+        <v>0.3462870662010729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>772</v>
@@ -8528,19 +8528,19 @@
         <v>690573</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>643885</v>
+        <v>644447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>733998</v>
+        <v>735952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3329640551394998</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3104533244548012</v>
+        <v>0.3107243167903526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3539016178930788</v>
+        <v>0.3548441470515062</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>115881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95011</v>
+        <v>94072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141138</v>
+        <v>139837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1208991543875614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09912446693590993</v>
+        <v>0.09814512382575599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1472490773021441</v>
+        <v>0.1458923856849794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -8578,19 +8578,19 @@
         <v>130943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111908</v>
+        <v>111488</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150222</v>
+        <v>152953</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1173829451770531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1003189298785161</v>
+        <v>0.09994263998985674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1346652526119501</v>
+        <v>0.137113841136937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -8599,19 +8599,19 @@
         <v>246824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>218816</v>
+        <v>220968</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>279807</v>
+        <v>282413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1190079457374438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1055035976944217</v>
+        <v>0.106541126513397</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1349105022065143</v>
+        <v>0.136167450865878</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>71598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54004</v>
+        <v>53995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94584</v>
+        <v>95203</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07469780558743098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05634262603335444</v>
+        <v>0.0563326305021787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09867932878310251</v>
+        <v>0.09932501804321313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -8649,19 +8649,19 @@
         <v>68723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54448</v>
+        <v>53602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84081</v>
+        <v>84549</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06160652899573014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04880967363671798</v>
+        <v>0.04805074728819567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07537420570192703</v>
+        <v>0.07579374803819712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -8670,19 +8670,19 @@
         <v>140321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117176</v>
+        <v>117223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166675</v>
+        <v>166326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06765660466647454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05649708345854816</v>
+        <v>0.05651996169119675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0803635733012473</v>
+        <v>0.08019533809088893</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>263910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>236612</v>
+        <v>230398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>292941</v>
+        <v>291480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2521888140635193</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2261032140441073</v>
+        <v>0.2201651761641893</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2799301249018067</v>
+        <v>0.2785337405971687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>469</v>
@@ -8795,19 +8795,19 @@
         <v>279399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>258795</v>
+        <v>255998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>305002</v>
+        <v>300798</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2671022221492272</v>
+        <v>0.2671022221492273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2474052486821187</v>
+        <v>0.2447312352099177</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2915786221076677</v>
+        <v>0.2875593738947954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>757</v>
@@ -8816,19 +8816,19 @@
         <v>543309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505380</v>
+        <v>507735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>580340</v>
+        <v>581764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2596439461655057</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2415177491428771</v>
+        <v>0.2426434057396734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2773405457649474</v>
+        <v>0.2780213384607583</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>284718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254233</v>
+        <v>251961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>315351</v>
+        <v>317979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2720725686426992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.242941429930919</v>
+        <v>0.240770048183133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3013443706668867</v>
+        <v>0.3038560922806452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>412</v>
@@ -8866,19 +8866,19 @@
         <v>301464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>276467</v>
+        <v>274811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>328096</v>
+        <v>329918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2881957298292522</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2642990423028119</v>
+        <v>0.2627157019701396</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3136554790202731</v>
+        <v>0.3153974684886644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>698</v>
@@ -8887,19 +8887,19 @@
         <v>586182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>547089</v>
+        <v>548722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>630614</v>
+        <v>628331</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2801324497816431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2614503412642641</v>
+        <v>0.2622305775095896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.301366405114947</v>
+        <v>0.3002753041453806</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>332383</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>300341</v>
+        <v>302063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>364322</v>
+        <v>367989</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3176202603210307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2870017512325705</v>
+        <v>0.2886470862021794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3481411697700594</v>
+        <v>0.3516453062573688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>452</v>
@@ -8937,19 +8937,19 @@
         <v>329586</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>304134</v>
+        <v>305642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>356497</v>
+        <v>359841</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3150805693440058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2907488804622626</v>
+        <v>0.2921903953682666</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.340806823334377</v>
+        <v>0.3440039654422367</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>768</v>
@@ -8958,19 +8958,19 @@
         <v>661969</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>620790</v>
+        <v>620615</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>706916</v>
+        <v>703896</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3163506825274687</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2966712211552247</v>
+        <v>0.2965879112460852</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.337830695946695</v>
+        <v>0.3363869983477085</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>119388</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97975</v>
+        <v>100080</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146148</v>
+        <v>145733</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1140852197548501</v>
+        <v>0.11408521975485</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09362316152971112</v>
+        <v>0.09563524598479603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1396568600588756</v>
+        <v>0.13926052250173</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>108</v>
@@ -9008,19 +9008,19 @@
         <v>82031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65449</v>
+        <v>66421</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98720</v>
+        <v>100101</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07842082691830989</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06256893098558376</v>
+        <v>0.06349779302100544</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09437539149372506</v>
+        <v>0.09569574841506946</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>209</v>
@@ -9029,19 +9029,19 @@
         <v>201419</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175695</v>
+        <v>173181</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233810</v>
+        <v>228662</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09625678252537824</v>
+        <v>0.09625678252537821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08396339748621426</v>
+        <v>0.08276196349417855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.111736479368777</v>
+        <v>0.1092762271984162</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>46080</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31640</v>
+        <v>31550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63849</v>
+        <v>64662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04403313721790066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03023434262175102</v>
+        <v>0.0301487074603738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06101321496473478</v>
+        <v>0.06179005184155575</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -9079,19 +9079,19 @@
         <v>53558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42331</v>
+        <v>40470</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68769</v>
+        <v>67771</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05120065175920472</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04046765950057964</v>
+        <v>0.03868905623466762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06574245595911404</v>
+        <v>0.06478872738796018</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -9100,19 +9100,19 @@
         <v>99638</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79192</v>
+        <v>81041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122052</v>
+        <v>123734</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04761613900000425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03784556002701173</v>
+        <v>0.03872916528019982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0583277663878689</v>
+        <v>0.05913179269025724</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>401886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>369347</v>
+        <v>369933</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>437587</v>
+        <v>436547</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4125529881295898</v>
+        <v>0.4125529881295897</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3791508813837889</v>
+        <v>0.3797524775943923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4492025021602451</v>
+        <v>0.4481343428406985</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>610</v>
@@ -9225,19 +9225,19 @@
         <v>387745</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>363030</v>
+        <v>362156</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>418915</v>
+        <v>415993</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4277429114130274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4004788686787317</v>
+        <v>0.399514662285811</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4621283778013163</v>
+        <v>0.4589050513528476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1032</v>
@@ -9246,19 +9246,19 @@
         <v>789631</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>748367</v>
+        <v>745151</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>834356</v>
+        <v>829518</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.419874737751346</v>
+        <v>0.4198747377513461</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3979334958494518</v>
+        <v>0.3962232785119883</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4436566437054157</v>
+        <v>0.441084045417821</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>238479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210431</v>
+        <v>209078</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>269800</v>
+        <v>266579</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.244809356509336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2160164525229827</v>
+        <v>0.214627632768405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2769611518830186</v>
+        <v>0.2736546706516899</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>315</v>
@@ -9296,19 +9296,19 @@
         <v>218061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>193930</v>
+        <v>195949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240921</v>
+        <v>240676</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2405545301089481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2139352393330189</v>
+        <v>0.2161619058874533</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2657732299736007</v>
+        <v>0.2655029806744809</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>545</v>
@@ -9317,19 +9317,19 @@
         <v>456540</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>421146</v>
+        <v>421985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>495302</v>
+        <v>496559</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.242758472314177</v>
+        <v>0.2427584723141771</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2239382851475386</v>
+        <v>0.224384403967712</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2633696129255984</v>
+        <v>0.2640379738344101</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>185961</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160527</v>
+        <v>160123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>216415</v>
+        <v>217477</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1908974511016663</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.164787722330644</v>
+        <v>0.1643731753120241</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2221590533775703</v>
+        <v>0.2232500248000688</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>216</v>
@@ -9367,19 +9367,19 @@
         <v>162260</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>141758</v>
+        <v>143446</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>186389</v>
+        <v>185958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1789976431231536</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1563811900585118</v>
+        <v>0.1582429160213176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2056158933582908</v>
+        <v>0.2051402135455248</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>380</v>
@@ -9388,19 +9388,19 @@
         <v>348221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>313039</v>
+        <v>316921</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>382465</v>
+        <v>383739</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1851615818059571</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1664542002100335</v>
+        <v>0.1685182564302506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2033701138927949</v>
+        <v>0.2040479092462128</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>87519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68733</v>
+        <v>69365</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112411</v>
+        <v>109876</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0898419424699443</v>
+        <v>0.08984194246994429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07055751972033185</v>
+        <v>0.07120612302662217</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1153947977280467</v>
+        <v>0.1127929810834832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -9438,19 +9438,19 @@
         <v>63886</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49733</v>
+        <v>50597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79204</v>
+        <v>80374</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0704765203967208</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05486374072179488</v>
+        <v>0.05581642091238172</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08737450425637443</v>
+        <v>0.08866463646453851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -9459,19 +9459,19 @@
         <v>151405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>126228</v>
+        <v>130041</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>179069</v>
+        <v>180197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08050754564027927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06712000658641039</v>
+        <v>0.06914755189806965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09521727986240676</v>
+        <v>0.09581691938737627</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>60298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44354</v>
+        <v>45237</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80271</v>
+        <v>80306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06189826178946371</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04553098309064081</v>
+        <v>0.04643725482859983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08240185972427334</v>
+        <v>0.08243767755264378</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>95</v>
@@ -9509,19 +9509,19 @@
         <v>74539</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59477</v>
+        <v>59523</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92401</v>
+        <v>92654</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08222839495815004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06561285743897821</v>
+        <v>0.06566293141773859</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1019321327991825</v>
+        <v>0.1022118539651853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>149</v>
@@ -9530,19 +9530,19 @@
         <v>134837</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112027</v>
+        <v>112587</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>160772</v>
+        <v>163220</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07169766248824046</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05956874551253569</v>
+        <v>0.05986657484086959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08548829238586</v>
+        <v>0.08678966772761675</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1002511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>949890</v>
+        <v>945774</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1063709</v>
+        <v>1063379</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2882552257384493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2731250390771864</v>
+        <v>0.2719414115512084</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3058516808831382</v>
+        <v>0.3057567891767018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1817</v>
@@ -9655,19 +9655,19 @@
         <v>1122044</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1072811</v>
+        <v>1078331</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1169916</v>
+        <v>1173309</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.30415320448606</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2908076232532941</v>
+        <v>0.2923039321581062</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3171300924416494</v>
+        <v>0.3180498027884869</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2899</v>
@@ -9676,19 +9676,19 @@
         <v>2124555</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2056209</v>
+        <v>2047516</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2199128</v>
+        <v>2194975</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.296438478070327</v>
+        <v>0.2964384780703271</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2869021925163557</v>
+        <v>0.2856893316250579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3068437334007603</v>
+        <v>0.3062642323369357</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>853236</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>797200</v>
+        <v>802535</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>915780</v>
+        <v>906758</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2453335816017763</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2292216266543932</v>
+        <v>0.2307553382836425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2633171604000688</v>
+        <v>0.2607231170927254</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1335</v>
@@ -9726,19 +9726,19 @@
         <v>959704</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>915445</v>
+        <v>914579</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1009604</v>
+        <v>1006677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2601476646903108</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2481503025576096</v>
+        <v>0.2479155261387588</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2736740438785688</v>
+        <v>0.2728807269096061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2171</v>
@@ -9747,19 +9747,19 @@
         <v>1812940</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1740013</v>
+        <v>1742040</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1884873</v>
+        <v>1883136</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2529589144760638</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2427834369923921</v>
+        <v>0.2430663579391359</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2629957650400991</v>
+        <v>0.2627533424327269</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>981769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>920493</v>
+        <v>922450</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1042193</v>
+        <v>1037652</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2822911083084197</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2646721804821489</v>
+        <v>0.2652350806395831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2996651005284069</v>
+        <v>0.298359384483147</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1377</v>
@@ -9797,19 +9797,19 @@
         <v>1017055</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>967408</v>
+        <v>965673</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1070581</v>
+        <v>1066792</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2756937263731186</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2622360768518757</v>
+        <v>0.2617655585087626</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2902031661339553</v>
+        <v>0.2891760977703616</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2261</v>
@@ -9818,19 +9818,19 @@
         <v>1998823</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1927681</v>
+        <v>1921440</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2068158</v>
+        <v>2075788</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2788952023279532</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2689687061232813</v>
+        <v>0.2680979941060151</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.288569497072307</v>
+        <v>0.2896340655945895</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>397562</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>357550</v>
+        <v>355276</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>445422</v>
+        <v>442490</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1143122566559646</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1028073853628599</v>
+        <v>0.1021536614676291</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1280737534429042</v>
+        <v>0.1272306797925124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>452</v>
@@ -9868,19 +9868,19 @@
         <v>348192</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>317660</v>
+        <v>317656</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>383548</v>
+        <v>383322</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09438464813966685</v>
+        <v>0.09438464813966684</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08610842935777745</v>
+        <v>0.0861073532204021</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1039687258564468</v>
+        <v>0.1039073939245463</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>786</v>
@@ -9889,19 +9889,19 @@
         <v>745754</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>689587</v>
+        <v>693042</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>798529</v>
+        <v>801008</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1040548112631501</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09621779787792904</v>
+        <v>0.09669993515976451</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1114185133881961</v>
+        <v>0.1117644597389169</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>242782</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>208643</v>
+        <v>208824</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>282174</v>
+        <v>281356</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06980782769539016</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05999193615714812</v>
+        <v>0.06004380399476463</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08113425567575343</v>
+        <v>0.08089933922591554</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>312</v>
@@ -9939,19 +9939,19 @@
         <v>242080</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213106</v>
+        <v>214305</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>274510</v>
+        <v>273664</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06562075631084376</v>
+        <v>0.06562075631084374</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05776672541640367</v>
+        <v>0.05809180522655944</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07441162786390657</v>
+        <v>0.07418216732556686</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>514</v>
@@ -9960,19 +9960,19 @@
         <v>484862</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>442368</v>
+        <v>437364</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>532953</v>
+        <v>530715</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.06765259386250572</v>
+        <v>0.06765259386250573</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06172340818911803</v>
+        <v>0.06102520273912255</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07436272341528015</v>
+        <v>0.07405054348422038</v>
       </c>
     </row>
     <row r="33">
